--- a/public/template-import-excel/edom-excel-import-matkul.xlsx
+++ b/public/template-import-excel/edom-excel-import-matkul.xlsx
@@ -103,13 +103,13 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" style="1" width="9.142307692307693"/>
-    <col min="2" max="2" style="1" width="18.998858173076925" customWidth="1"/>
+    <col min="2" max="2" style="1" width="33.99795673076923" customWidth="1"/>
     <col min="3" max="3" style="1" width="9.142307692307693"/>
     <col min="4" max="4" style="1" width="12.713521634615386" customWidth="1"/>
     <col min="5" max="5" style="1" width="11.999278846153848" customWidth="1"/>
